--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.CodeSystem.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.CodeSystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>The CodeSystem resource is used to declare the existence of and describe a code system or code system supplement and its key properties, and optionally define a part or all of its content.</t>
   </si>
   <si>
-    <t>csd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -274,7 +270,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>CodeSystem.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Business version of the code system (Coding.version)</t>
@@ -1803,10 +1803,10 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>76</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1831,28 +1831,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1902,13 +1902,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1942,25 +1942,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2011,19 +2011,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2051,28 +2051,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2122,19 +2122,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2162,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2174,16 +2174,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2209,43 +2209,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2262,18 +2262,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2285,16 +2285,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2344,22 +2344,22 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2373,11 +2373,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2396,16 +2396,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2455,7 +2455,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2470,7 +2470,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2484,11 +2484,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2507,16 +2507,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2566,7 +2566,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2578,10 +2578,10 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2595,11 +2595,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2612,25 +2612,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2679,7 +2679,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2691,10 +2691,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2716,34 +2716,34 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2792,28 +2792,28 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2841,22 +2841,22 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -2905,7 +2905,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2917,24 +2917,24 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2945,19 +2945,19 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>156</v>
@@ -3016,19 +3016,19 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -3056,19 +3056,19 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>162</v>
@@ -3135,13 +3135,13 @@
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -3169,19 +3169,19 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -3246,13 +3246,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -3277,22 +3277,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>173</v>
@@ -3354,16 +3354,16 @@
         <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3391,16 +3391,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>182</v>
@@ -3470,13 +3470,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3504,16 +3504,16 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>190</v>
@@ -3581,13 +3581,13 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3615,19 +3615,19 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>197</v>
@@ -3694,13 +3694,13 @@
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3737,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>204</v>
@@ -3811,7 +3811,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3839,7 +3839,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3916,16 +3916,16 @@
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>215</v>
@@ -3959,7 +3959,7 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>217</v>
@@ -4035,7 +4035,7 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -4072,7 +4072,7 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>224</v>
@@ -4146,7 +4146,7 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4174,7 +4174,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4251,13 +4251,13 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -4269,7 +4269,7 @@
         <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -4285,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4364,13 +4364,13 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4382,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4398,16 +4398,16 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>182</v>
@@ -4475,13 +4475,13 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4509,16 +4509,16 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>250</v>
@@ -4586,13 +4586,13 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4620,19 +4620,19 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>255</v>
@@ -4697,13 +4697,13 @@
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4731,16 +4731,16 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>182</v>
@@ -4808,13 +4808,13 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
@@ -4842,16 +4842,16 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>182</v>
@@ -4919,13 +4919,13 @@
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -4950,22 +4950,22 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>270</v>
@@ -5025,16 +5025,16 @@
         <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -5062,16 +5062,16 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>275</v>
@@ -5139,13 +5139,13 @@
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -5173,16 +5173,16 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>280</v>
@@ -5250,13 +5250,13 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -5293,7 +5293,7 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>285</v>
@@ -5367,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5395,7 +5395,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5407,7 +5407,7 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>290</v>
@@ -5470,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5516,16 +5516,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5587,7 +5587,7 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>293</v>
@@ -5621,13 +5621,13 @@
         <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>299</v>
@@ -5636,10 +5636,10 @@
         <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5700,10 +5700,10 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>303</v>
@@ -5800,16 +5800,16 @@
         <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -5837,19 +5837,19 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>306</v>
@@ -5912,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>78</v>
@@ -5955,10 +5955,10 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>309</v>
@@ -6018,7 +6018,7 @@
         <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6027,7 +6027,7 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -6052,22 +6052,22 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>314</v>
@@ -6127,16 +6127,16 @@
         <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
@@ -6173,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>285</v>
@@ -6245,7 +6245,7 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
@@ -6273,7 +6273,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6285,7 +6285,7 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>290</v>
@@ -6348,7 +6348,7 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6394,16 +6394,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>295</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6465,7 +6465,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>293</v>
@@ -6499,13 +6499,13 @@
         <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>299</v>
@@ -6514,10 +6514,10 @@
         <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6578,10 +6578,10 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6603,22 +6603,22 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>323</v>
@@ -6678,16 +6678,16 @@
         <v>322</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
@@ -6715,19 +6715,19 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>326</v>
@@ -6790,13 +6790,13 @@
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
@@ -6824,19 +6824,19 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>329</v>
@@ -6899,13 +6899,13 @@
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>332</v>
@@ -7005,16 +7005,16 @@
         <v>331</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7125,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7153,7 +7153,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7165,7 +7165,7 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>290</v>
@@ -7228,7 +7228,7 @@
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7274,16 +7274,16 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>295</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7345,7 +7345,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>293</v>
@@ -7379,13 +7379,13 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>299</v>
@@ -7394,10 +7394,10 @@
         <v>300</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7458,10 +7458,10 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7483,10 +7483,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7498,7 +7498,7 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>344</v>
@@ -7558,16 +7558,16 @@
         <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7595,7 +7595,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7607,7 +7607,7 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>347</v>
@@ -7670,13 +7670,13 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -7704,7 +7704,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -7716,7 +7716,7 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>350</v>
@@ -7779,13 +7779,13 @@
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -7898,7 +7898,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7926,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -7938,7 +7938,7 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>290</v>
@@ -8001,7 +8001,7 @@
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8047,16 +8047,16 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>295</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8118,7 +8118,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>293</v>
@@ -8152,13 +8152,13 @@
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>299</v>
@@ -8167,10 +8167,10 @@
         <v>300</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8231,10 +8231,10 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8259,7 +8259,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8271,7 +8271,7 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>361</v>
@@ -8306,13 +8306,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X61" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X61" t="s" s="2">
+      <c r="Y61" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8336,13 +8336,13 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -8370,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8447,13 +8447,13 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
@@ -8478,10 +8478,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8493,7 +8493,7 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>372</v>
@@ -8553,16 +8553,16 @@
         <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -8671,7 +8671,7 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -8699,7 +8699,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -8711,7 +8711,7 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>290</v>
@@ -8774,7 +8774,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8820,16 +8820,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>295</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8891,7 +8891,7 @@
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>293</v>
@@ -8925,13 +8925,13 @@
         <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>299</v>
@@ -8940,10 +8940,10 @@
         <v>300</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9004,10 +9004,10 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9029,10 +9029,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9044,7 +9044,7 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>381</v>
@@ -9104,16 +9104,16 @@
         <v>380</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9138,10 +9138,10 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9213,16 +9213,16 @@
         <v>383</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9331,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
